--- a/PlaywrightTests/CMB/QA/Catalog_scf_IntCatalog.xlsx
+++ b/PlaywrightTests/CMB/QA/Catalog_scf_IntCatalog.xlsx
@@ -812,7 +812,7 @@
     <x:t>10101501 UNSPSC-12.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Smoke Internal Catalog 001 202549011749</x:t>
+    <x:t>Smoke Internal Catalog 001 202507072132</x:t>
   </x:si>
   <x:si>
     <x:t>Long Description for item SMK00001</x:t>

--- a/PlaywrightTests/CMB/QA/Catalog_scf_IntCatalog.xlsx
+++ b/PlaywrightTests/CMB/QA/Catalog_scf_IntCatalog.xlsx
@@ -812,7 +812,7 @@
     <x:t>10101501 UNSPSC-12.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Smoke Internal Catalog 001 202507072132</x:t>
+    <x:t>Smoke Internal Catalog 001 202507081820</x:t>
   </x:si>
   <x:si>
     <x:t>Long Description for item SMK00001</x:t>

--- a/PlaywrightTests/CMB/QA/Catalog_scf_IntCatalog.xlsx
+++ b/PlaywrightTests/CMB/QA/Catalog_scf_IntCatalog.xlsx
@@ -812,7 +812,7 @@
     <x:t>10101501 UNSPSC-12.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Smoke Internal Catalog 001 202507081820</x:t>
+    <x:t>Smoke Internal Catalog 001 202507101740</x:t>
   </x:si>
   <x:si>
     <x:t>Long Description for item SMK00001</x:t>

--- a/PlaywrightTests/CMB/QA/Catalog_scf_IntCatalog.xlsx
+++ b/PlaywrightTests/CMB/QA/Catalog_scf_IntCatalog.xlsx
@@ -812,7 +812,7 @@
     <x:t>10101501 UNSPSC-12.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Smoke Internal Catalog 001 202507101740</x:t>
+    <x:t>Smoke Internal Catalog 001 202507151756</x:t>
   </x:si>
   <x:si>
     <x:t>Long Description for item SMK00001</x:t>
